--- a/exporter/src/main/resources/template.xlsx
+++ b/exporter/src/main/resources/template.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Наименование</t>
   </si>
@@ -38,6 +38,9 @@
     <t>Расход с учетом комиссии, RUB</t>
   </si>
   <si>
+    <t>Доход, USD</t>
+  </si>
+  <si>
     <t>Доход, RUB</t>
   </si>
   <si>
@@ -60,12 +63,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="dd.mm.yyyy"/>
     <numFmt numFmtId="60" formatCode="#,##0.00&quot; &quot;[$$-409]"/>
     <numFmt numFmtId="61" formatCode="0.0000"/>
     <numFmt numFmtId="62" formatCode="#,##0.00&quot; RUB&quot;"/>
+    <numFmt numFmtId="63" formatCode="[$$-409]&quot; &quot;#,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -133,7 +137,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -158,10 +162,16 @@
     <xf numFmtId="62" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="63" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="63" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="62" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1250,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1264,11 +1274,11 @@
     <col min="6" max="6" width="9.85156" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.67188" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.6719" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.8516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.8516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="10" width="17.8516" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.8516" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.8516" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1">
@@ -1308,10 +1318,13 @@
       <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3">
         <v>43832</v>
@@ -1335,40 +1348,46 @@
       <c r="H2" s="7">
         <v>44444.4444</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>555.55</v>
       </c>
       <c r="J2" s="7">
+        <v>555.55</v>
+      </c>
+      <c r="K2" s="7">
         <v>7777.77</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>8888.888000000001</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>99999.999</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="8">
-        <v>13</v>
+      <c r="A3" t="s" s="9">
+        <v>14</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11">
         <v>111</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="12">
+        <v>111</v>
+      </c>
+      <c r="K3" s="12">
         <v>222</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="12">
         <v>333</v>
       </c>
-      <c r="L3" s="10">
+      <c r="M3" s="12">
         <v>444</v>
       </c>
     </row>
@@ -1383,25 +1402,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.1719" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13.8516" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.1719" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.85156" style="11" customWidth="1"/>
-    <col min="7" max="7" width="9.67188" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.6719" style="11" customWidth="1"/>
-    <col min="9" max="9" width="17.8516" style="11" customWidth="1"/>
-    <col min="10" max="10" width="18.8516" style="11" customWidth="1"/>
-    <col min="11" max="11" width="17.8516" style="11" customWidth="1"/>
-    <col min="12" max="12" width="19" style="11" customWidth="1"/>
-    <col min="13" max="16384" width="8.85156" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.1719" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.8516" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.1719" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9.85156" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9.67188" style="13" customWidth="1"/>
+    <col min="8" max="8" width="17.6719" style="13" customWidth="1"/>
+    <col min="9" max="10" width="17.8516" style="13" customWidth="1"/>
+    <col min="11" max="11" width="18.8516" style="13" customWidth="1"/>
+    <col min="12" max="12" width="17.8516" style="13" customWidth="1"/>
+    <col min="13" max="13" width="19" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="8.85156" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1">
@@ -1441,10 +1460,13 @@
       <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3">
         <v>43832</v>
@@ -1468,40 +1490,46 @@
       <c r="H2" s="7">
         <v>44444.4444</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>555.55</v>
       </c>
       <c r="J2" s="7">
+        <v>555.55</v>
+      </c>
+      <c r="K2" s="7">
         <v>7777.77</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>8888.888000000001</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>99999.999</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="8">
-        <v>13</v>
+      <c r="A3" t="s" s="9">
+        <v>14</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11">
         <v>111</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="12">
+        <v>111</v>
+      </c>
+      <c r="K3" s="12">
         <v>222</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="12">
         <v>333</v>
       </c>
-      <c r="L3" s="10">
+      <c r="M3" s="12">
         <v>444</v>
       </c>
     </row>

--- a/exporter/src/main/resources/template.xlsx
+++ b/exporter/src/main/resources/template.xlsx
@@ -7,6 +7,7 @@
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId4"/>
     <sheet name="2021" sheetId="2" r:id="rId5"/>
+    <sheet name="2022" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -108,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -131,13 +132,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -175,6 +263,36 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="62" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -425,7 +543,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -455,7 +572,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -481,7 +597,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -507,7 +622,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -533,7 +647,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -559,7 +672,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -585,7 +697,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -611,7 +722,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -637,7 +747,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -663,7 +772,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -714,7 +822,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -740,7 +847,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -766,7 +872,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -792,7 +897,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -818,7 +922,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -844,7 +947,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -870,7 +972,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -896,7 +997,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -922,7 +1022,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -948,7 +1047,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -996,7 +1094,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1026,7 +1123,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1052,7 +1148,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1078,7 +1173,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1104,7 +1198,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1130,7 +1223,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1156,7 +1248,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1182,7 +1273,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1208,7 +1298,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1234,7 +1323,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1260,7 +1348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1391,6 +1479,111 @@
         <v>444</v>
       </c>
     </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -1402,25 +1595,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.1719" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10" style="13" customWidth="1"/>
-    <col min="4" max="4" width="13.8516" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.1719" style="13" customWidth="1"/>
-    <col min="6" max="6" width="9.85156" style="13" customWidth="1"/>
-    <col min="7" max="7" width="9.67188" style="13" customWidth="1"/>
-    <col min="8" max="8" width="17.6719" style="13" customWidth="1"/>
-    <col min="9" max="10" width="17.8516" style="13" customWidth="1"/>
-    <col min="11" max="11" width="18.8516" style="13" customWidth="1"/>
-    <col min="12" max="12" width="17.8516" style="13" customWidth="1"/>
-    <col min="13" max="13" width="19" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="8.85156" style="13" customWidth="1"/>
+    <col min="1" max="1" width="15.1719" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13" style="22" customWidth="1"/>
+    <col min="3" max="3" width="10" style="22" customWidth="1"/>
+    <col min="4" max="4" width="13.8516" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12.1719" style="22" customWidth="1"/>
+    <col min="6" max="6" width="9.85156" style="22" customWidth="1"/>
+    <col min="7" max="7" width="9.67188" style="22" customWidth="1"/>
+    <col min="8" max="8" width="17.6719" style="22" customWidth="1"/>
+    <col min="9" max="10" width="17.8516" style="22" customWidth="1"/>
+    <col min="11" max="11" width="18.8516" style="22" customWidth="1"/>
+    <col min="12" max="12" width="17.8516" style="22" customWidth="1"/>
+    <col min="13" max="13" width="19" style="22" customWidth="1"/>
+    <col min="14" max="16384" width="8.85156" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1">
@@ -1533,6 +1726,358 @@
         <v>444</v>
       </c>
     </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="15.1719" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13" style="23" customWidth="1"/>
+    <col min="3" max="3" width="10" style="23" customWidth="1"/>
+    <col min="4" max="4" width="13.8516" style="23" customWidth="1"/>
+    <col min="5" max="5" width="12.1719" style="23" customWidth="1"/>
+    <col min="6" max="6" width="9.85156" style="23" customWidth="1"/>
+    <col min="7" max="7" width="9.67188" style="23" customWidth="1"/>
+    <col min="8" max="8" width="17.6719" style="23" customWidth="1"/>
+    <col min="9" max="10" width="17.8516" style="23" customWidth="1"/>
+    <col min="11" max="11" width="18.8516" style="23" customWidth="1"/>
+    <col min="12" max="12" width="17.8516" style="23" customWidth="1"/>
+    <col min="13" max="13" width="19" style="23" customWidth="1"/>
+    <col min="14" max="16384" width="8.85156" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="51" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43832</v>
+      </c>
+      <c r="C2" s="4">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
+        <v>135.12</v>
+      </c>
+      <c r="E2" s="5">
+        <f>C2*D2</f>
+        <v>1351.2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-1.13567</v>
+      </c>
+      <c r="G2" s="6">
+        <v>75.12345000000001</v>
+      </c>
+      <c r="H2" s="7">
+        <v>44444.4444</v>
+      </c>
+      <c r="I2" s="8">
+        <v>555.55</v>
+      </c>
+      <c r="J2" s="7">
+        <v>555.55</v>
+      </c>
+      <c r="K2" s="7">
+        <v>7777.77</v>
+      </c>
+      <c r="L2" s="7">
+        <v>8888.888000000001</v>
+      </c>
+      <c r="M2" s="7">
+        <v>99999.999</v>
+      </c>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11">
+        <v>111</v>
+      </c>
+      <c r="J3" s="12">
+        <v>111</v>
+      </c>
+      <c r="K3" s="12">
+        <v>222</v>
+      </c>
+      <c r="L3" s="12">
+        <v>333</v>
+      </c>
+      <c r="M3" s="12">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/exporter/src/main/resources/template.xlsx
+++ b/exporter/src/main/resources/template.xlsx
@@ -8,14 +8,18 @@
     <sheet name="2020" sheetId="1" r:id="rId4"/>
     <sheet name="2021" sheetId="2" r:id="rId5"/>
     <sheet name="2022" sheetId="3" r:id="rId6"/>
+    <sheet name="2023" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Наименование</t>
+  </si>
+  <si>
+    <t>Идентификатор</t>
   </si>
   <si>
     <t>Дата</t>
@@ -55,6 +59,9 @@
   </si>
   <si>
     <t>QQQ</t>
+  </si>
+  <si>
+    <t>US0000000000</t>
   </si>
   <si>
     <t>Итого</t>
@@ -225,7 +232,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -290,6 +297,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1348,25 +1358,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="15.1719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.67188" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6719" style="1" customWidth="1"/>
-    <col min="9" max="10" width="17.8516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.8516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.8516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.8516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1719" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85156" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.67188" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6719" style="1" customWidth="1"/>
+    <col min="10" max="11" width="17.8516" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.8516" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8516" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1">
@@ -1409,73 +1419,80 @@
       <c r="M1" t="s" s="2">
         <v>12</v>
       </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3">
         <v>43832</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>135.12</v>
       </c>
-      <c r="E2" s="5">
-        <f>C2*D2</f>
+      <c r="F2" s="5">
+        <f>D2*E2</f>
         <v>1351.2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <v>-1.13567</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>75.12345000000001</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>44444.4444</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>555.55</v>
       </c>
-      <c r="J2" s="7">
+      <c r="K2" s="7">
         <v>555.55</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>7777.77</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>8888.888000000001</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
         <v>99999.999</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="10"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="11">
+      <c r="I3" s="10"/>
+      <c r="J3" s="11">
         <v>111</v>
       </c>
-      <c r="J3" s="12">
+      <c r="K3" s="12">
         <v>111</v>
       </c>
-      <c r="K3" s="12">
+      <c r="L3" s="12">
         <v>222</v>
       </c>
-      <c r="L3" s="12">
+      <c r="M3" s="12">
         <v>333</v>
       </c>
-      <c r="M3" s="12">
+      <c r="N3" s="12">
         <v>444</v>
       </c>
     </row>
@@ -1492,7 +1509,8 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="16"/>
@@ -1507,7 +1525,8 @@
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="16"/>
@@ -1522,7 +1541,8 @@
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
-      <c r="M6" s="18"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="16"/>
@@ -1537,7 +1557,8 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="16"/>
@@ -1552,7 +1573,8 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="16"/>
@@ -1567,7 +1589,8 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="19"/>
@@ -1582,7 +1605,8 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1595,7 +1619,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1612,8 +1636,8 @@
     <col min="9" max="10" width="17.8516" style="22" customWidth="1"/>
     <col min="11" max="11" width="18.8516" style="22" customWidth="1"/>
     <col min="12" max="12" width="17.8516" style="22" customWidth="1"/>
-    <col min="13" max="13" width="19" style="22" customWidth="1"/>
-    <col min="14" max="16384" width="8.85156" style="22" customWidth="1"/>
+    <col min="13" max="14" width="19" style="22" customWidth="1"/>
+    <col min="15" max="16384" width="8.85156" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1">
@@ -1656,73 +1680,80 @@
       <c r="M1" t="s" s="2">
         <v>12</v>
       </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3">
         <v>43832</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>135.12</v>
       </c>
-      <c r="E2" s="5">
-        <f>C2*D2</f>
+      <c r="F2" s="5">
+        <f>D2*E2</f>
         <v>1351.2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <v>-1.13567</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>75.12345000000001</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>44444.4444</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>555.55</v>
       </c>
-      <c r="J2" s="7">
+      <c r="K2" s="7">
         <v>555.55</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>7777.77</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>8888.888000000001</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
         <v>99999.999</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="10"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="11">
+      <c r="I3" s="10"/>
+      <c r="J3" s="11">
         <v>111</v>
       </c>
-      <c r="J3" s="12">
+      <c r="K3" s="12">
         <v>111</v>
       </c>
-      <c r="K3" s="12">
+      <c r="L3" s="12">
         <v>222</v>
       </c>
-      <c r="L3" s="12">
+      <c r="M3" s="12">
         <v>333</v>
       </c>
-      <c r="M3" s="12">
+      <c r="N3" s="12">
         <v>444</v>
       </c>
     </row>
@@ -1739,7 +1770,8 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="16"/>
@@ -1754,7 +1786,8 @@
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="16"/>
@@ -1769,7 +1802,8 @@
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
-      <c r="M6" s="18"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="16"/>
@@ -1784,7 +1818,8 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="16"/>
@@ -1799,7 +1834,8 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="16"/>
@@ -1814,7 +1850,8 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="19"/>
@@ -1829,7 +1866,8 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1842,7 +1880,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1859,8 +1897,8 @@
     <col min="9" max="10" width="17.8516" style="23" customWidth="1"/>
     <col min="11" max="11" width="18.8516" style="23" customWidth="1"/>
     <col min="12" max="12" width="17.8516" style="23" customWidth="1"/>
-    <col min="13" max="13" width="19" style="23" customWidth="1"/>
-    <col min="14" max="16384" width="8.85156" style="23" customWidth="1"/>
+    <col min="13" max="14" width="19" style="23" customWidth="1"/>
+    <col min="15" max="16384" width="8.85156" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1">
@@ -1903,73 +1941,80 @@
       <c r="M1" t="s" s="2">
         <v>12</v>
       </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3">
         <v>43832</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>135.12</v>
       </c>
-      <c r="E2" s="5">
-        <f>C2*D2</f>
+      <c r="F2" s="5">
+        <f>D2*E2</f>
         <v>1351.2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <v>-1.13567</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>75.12345000000001</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>44444.4444</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>555.55</v>
       </c>
-      <c r="J2" s="7">
+      <c r="K2" s="7">
         <v>555.55</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>7777.77</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>8888.888000000001</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
         <v>99999.999</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="10"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="11">
+      <c r="I3" s="10"/>
+      <c r="J3" s="11">
         <v>111</v>
       </c>
-      <c r="J3" s="12">
+      <c r="K3" s="12">
         <v>111</v>
       </c>
-      <c r="K3" s="12">
+      <c r="L3" s="12">
         <v>222</v>
       </c>
-      <c r="L3" s="12">
+      <c r="M3" s="12">
         <v>333</v>
       </c>
-      <c r="M3" s="12">
+      <c r="N3" s="12">
         <v>444</v>
       </c>
     </row>
@@ -1986,7 +2031,8 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="16"/>
@@ -2001,7 +2047,8 @@
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="16"/>
@@ -2016,7 +2063,8 @@
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
-      <c r="M6" s="18"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="16"/>
@@ -2031,7 +2079,8 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="16"/>
@@ -2046,7 +2095,8 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="16"/>
@@ -2061,7 +2111,8 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="19"/>
@@ -2076,7 +2127,269 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="15.1719" style="24" customWidth="1"/>
+    <col min="2" max="2" width="13" style="24" customWidth="1"/>
+    <col min="3" max="3" width="10" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.8516" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12.1719" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9.85156" style="24" customWidth="1"/>
+    <col min="7" max="7" width="9.67188" style="24" customWidth="1"/>
+    <col min="8" max="8" width="17.6719" style="24" customWidth="1"/>
+    <col min="9" max="10" width="17.8516" style="24" customWidth="1"/>
+    <col min="11" max="11" width="18.8516" style="24" customWidth="1"/>
+    <col min="12" max="12" width="17.8516" style="24" customWidth="1"/>
+    <col min="13" max="14" width="19" style="24" customWidth="1"/>
+    <col min="15" max="16384" width="8.85156" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="51" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43832</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5">
+        <v>135.12</v>
+      </c>
+      <c r="F2" s="5">
+        <f>D2*E2</f>
+        <v>1351.2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>-1.13567</v>
+      </c>
+      <c r="H2" s="6">
+        <v>75.12345000000001</v>
+      </c>
+      <c r="I2" s="7">
+        <v>44444.4444</v>
+      </c>
+      <c r="J2" s="8">
+        <v>555.55</v>
+      </c>
+      <c r="K2" s="7">
+        <v>555.55</v>
+      </c>
+      <c r="L2" s="7">
+        <v>7777.77</v>
+      </c>
+      <c r="M2" s="7">
+        <v>8888.888000000001</v>
+      </c>
+      <c r="N2" s="7">
+        <v>99999.999</v>
+      </c>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11">
+        <v>111</v>
+      </c>
+      <c r="K3" s="12">
+        <v>111</v>
+      </c>
+      <c r="L3" s="12">
+        <v>222</v>
+      </c>
+      <c r="M3" s="12">
+        <v>333</v>
+      </c>
+      <c r="N3" s="12">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
